--- a/scraped_data_page_1.xlsx
+++ b/scraped_data_page_1.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"M" CAR GARAGE, Matej Pelc s.p.</t>
+          <t>"BEAUTY" ZDENKA SAVIĆ S.P.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Štajngrova    7, Štajngrova, 2234 Benedikt</t>
+          <t>Ulica mesta Grevenbroich   13, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -502,35 +502,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16. 1. 2023</t>
+          <t>22. 4. 1994</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/M-CAR-GARAGE-MATEJ-PELC-S-P/</t>
+          <t>https://www.bizi.si/BEAUTY-ZDENKA-SAVIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"VOGRINEC DETAILING", JELKA VOGRINEC s.p.</t>
+          <t>"BIOLAS" SIMONA ŠOŠTARIČ S.P.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lomanoše   23A, Lomanoše, 9250 Gornja Radgona</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Podgorci    4, Podgorci, 2273 Podgorci</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02 7192329</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -538,40 +546,44 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>biolas@amis.net</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4. 11. 2024</t>
+          <t>1. 12. 1995</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/VOGRINEC-DETAILING-JELKA-VOGRINEC-S-P/</t>
+          <t>https://www.bizi.si/BIOLAS-SIMONA-SOSTARIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>324 d.o.o.</t>
+          <t>"FARAON" PODOBNIK PAVLA S.P.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cesta 8. maja    2, Log pri Brezovici, 1358 Log pri Brezovici</t>
+          <t>Triglavska cesta   53, Radovljica, 4240 Radovljica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>041 985079</t>
+          <t>04 5312529</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,38 +593,46 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>324servis@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29. 9. 2020</t>
+          <t>27. 5. 1997</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/324-D-O-O/</t>
+          <t>https://www.bizi.si/FARAON-PODOBNIK-PAVLA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3DM, Miha Drožđan s.p.</t>
+          <t>"FIGARO" (FRIZERSKI SALON) ZORAN FREIBERG S.P.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mrtvice   49, Mrtvice, 8273 Leskovec pri Krškem</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Bazoviška ulica   18, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>040 849114</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -623,35 +643,43 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1. 2. 2023</t>
+          <t>17. 1. 1994</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/3DM-MIHA-DROZDAN-S-P/</t>
+          <t>https://www.bizi.si/FIGARO-FRIZERSKI-SALON-ZORAN-FREIBERG-S-P/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3S &amp; 3S, Alojz Tičar s.p.</t>
+          <t>"FRIZERSKI STUDIO M" MIRA POLJŠAK SIROVINA S.P.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bučka    5A, Bučka, 8276 Bučka</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Majorja Lavriča ulica   12, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01 5183286</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -662,78 +690,90 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3. 10. 2020</t>
+          <t>14. 12. 1998</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/3S-3S-ALOJZ-TICAR-S-P/</t>
+          <t>https://www.bizi.si/FRIZERSKI-STUDIO-M-MIRA-POLJSAK-SIROVINA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4WHEEL SERVICE, Klemen Drufovka s.p.</t>
+          <t>"LASNICA" Helena Novak s.p.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gramozna pot    7B, Ljubljana, 1000 Ljubljana</t>
+          <t>Ljubljanska cesta   90, Domžale, 1230 Domžale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>031 245692</t>
+          <t>041 288579</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Več kontaktov v TIS-u</t>
+          <t>http://www.frizerskisalon-mira.si</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>klemend4@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>info@frizerskisalon-mira.si</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1. 2. 2022</t>
+          <t>1. 1. 2002</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/4WHEEL-SERVICE-KLEMEN-DRUFOVKA-S-P/</t>
+          <t>https://www.bizi.si/LASNICA-HELENA-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A - SHINE Andraž Rozman s.p.</t>
+          <t>"MARJANA" MARJANA HOMJAK S.P.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ulica Frankolovskih žrtev   34, Celje, 3000 Celje</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Trinkova ulica    3, PIRAN - PIRANO, 6330 Piran - Pirano</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>041 818831</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -744,37 +784,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Velikost RS se ne izračunava</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22. 4. 2024</t>
+          <t>1. 6. 1994</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-SHINE-ANDRAZ-ROZMAN-S-P/</t>
+          <t>https://www.bizi.si/MARJANA-MARJANA-HOMJAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A&amp;L GARAGE, Klemen Jaušovec s.p.</t>
+          <t>"MOŠKO FRIZERSTVO" ANTON KOMATAR S.P.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strjanci    3A, Strjanci, 2273 Podgorci</t>
+          <t>Koliška ulica    1, Vir, 1230 Domžale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>041 455129</t>
+          <t>01 7211623</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -787,37 +831,41 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1. 2. 2024</t>
+          <t>9. 7. 1987</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-L-GARAGE-KLEMEN-JAUSOVEC-S-P/</t>
+          <t>https://www.bizi.si/MOSKO-FRIZERSTVO-ANTON-KOMATAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A&amp;M AUTO DETAILING, Monika Tomašić s.p.</t>
+          <t>"SILVA", d.o.o.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Milčinskega ulica   14, Celje, 3000 Celje</t>
+          <t>Kranjčeva ulica   12, Moravske Toplice, 9226 Moravske Toplice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>041 388981</t>
+          <t>041 413671</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,40 +875,44 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>anfalov.vladimir@siol.net</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1. 5. 2022</t>
+          <t>18. 2. 2011</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-M-AUTO-DETAILING-MONIKA-TOMASIC-S-P/</t>
+          <t>https://www.bizi.si/SILVA-D-O-O/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A-JUSS HITRI SERVIS JASMIN KADIRIĆ S.P.</t>
+          <t>"STUDIO IN", URŠKA PUŠNIK s.p.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Velika pot   14, Solkan, 5250 Solkan</t>
+          <t>Šentiljska cesta   27, Maribor, 2000 Maribor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>040 204966</t>
+          <t>02 2526573</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -870,7 +922,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
+          <t>urska@studio-in.si</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -880,34 +932,34 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15. 9. 2017</t>
+          <t>1. 6. 2011</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-JUSS-HITRI-SERVIS-JASMIN-KADIRIC-S-P/</t>
+          <t>https://www.bizi.si/STUDIO-IN-URSKA-PUSNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A.C.B., d.o.o.</t>
+          <t>"ČESALNICA LAS" - ŽENSKO IN MOŠKO FRIZERSTVO - OLGA NOVAK S.P.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ljubljanska ulica   50, Maribor, 2000 Maribor</t>
+          <t>Ziherlova ulica    6, Ljubljana, 1000 Ljubljana</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>041 626767</t>
+          <t>01 4298020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -927,34 +979,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15. 10. 2013</t>
+          <t>1. 7. 1993</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-C-B-D-O-O/</t>
+          <t>https://www.bizi.si/CESALNICA-LAS-ZENSKO-IN-MOSKO-FRIZERSTVO-OLGA-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A.D.S., Anja Skaza s.p.</t>
+          <t>"ČESALNICA VENERA" FRIZERSTVO SUZANA PERKO S.P.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plintovec   33A, Plintovec, 2201 Zgornja Kungota</t>
+          <t>Ulica XXX. divizije   21, Nova Gorica, 5000 Nova Gorica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>069 756730</t>
+          <t>05 3027107</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -964,38 +1016,46 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>info.ads.sp@gmail.com</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24. 9. 2024</t>
+          <t>15. 11. 1999</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-D-S-ANJA-SKAZA-S-P/</t>
+          <t>https://www.bizi.si/CESALNICA-VENERA-FRIZERSTVO-SUZANA-PERKO-S-P/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A.G. STAR, GZIM AVDIJA s.p.</t>
+          <t>''PATY'' PATRICIJA STUBELJ S.P.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Primorska cesta    1, Šoštanj, 3325 Šoštanj</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Bevkov trg    6, Nova Gorica, 5000 Nova Gorica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>05 3001131</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1006,32 +1066,36 @@
           <t>info@bizi.si</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1. 10. 2023</t>
+          <t>6. 11. 2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A-G-STAR-GZIM-AVDIJA-S-P/</t>
+          <t>https://www.bizi.si/PATY-PATRICIJA-STUBELJ-S-P/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A1S, Alen Šinko s.p.</t>
+          <t>3S Saša Šuštar s.p.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spodnja Ščavnica   20, Spodnja Ščavnica, 9250 Gornja Radgona</t>
+          <t>Mošenik    5, Mošenik, 1282 Sava</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1048,29 +1112,29 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10. 2. 2025</t>
+          <t>1. 1. 2022</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/A1S-ALEN-SINKO-S-P/</t>
+          <t>https://www.bizi.si/3S-SASA-SUSTAR-S-P/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AC BIMMER d.o.o.</t>
+          <t>3TiM d.o.o.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ulica borcev za severno mejo   24, Ljubljana, 1000 Ljubljana</t>
+          <t>Krpanova ulica    9, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1081,38 +1145,46 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>info@ac-bimmer.si</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>studiodeja@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2. 12. 2024</t>
+          <t>29. 10. 2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-BIMMER-D-O-O/</t>
+          <t>https://www.bizi.si/3TIM-D-O-O_CELJE/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AC ELITE Klemen Lahovec s.p.</t>
+          <t>5AR, Petar Marjanac s.p.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Smoletova ulica    3, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Čečovje    6, Ravne na Koroškem, 2390 Ravne na Koroškem</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>070 161351</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1120,46 +1192,38 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ni podatka o velikosti</t>
-        </is>
-      </c>
+          <t>petar.marjanac@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13. 2. 2019</t>
+          <t>5. 12. 2023</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-ELITE-KLEMEN-LAHOVEC-S-P/</t>
+          <t>https://www.bizi.si/5AR-PETAR-MARJANAC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AC JUR TEAM d.o.o.</t>
+          <t>726 STUDIO, Nina Marjeta Babnik s.p.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Srednje Bitnje   66B, Srednje Bitnje, 4209 Žabnica</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>041 773790</t>
-        </is>
-      </c>
+          <t>Dunajska cesta   43, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1167,42 +1231,46 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>avto.jur@siol.net</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ni podatka o velikosti</t>
+          <t>Mikro enote</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13. 6. 2023</t>
+          <t>9. 1. 2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-JUR-TEAM-D-O-O/</t>
+          <t>https://www.bizi.si/726-STUDIO-NINA-MARJETA-BABNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AC Vreček, Tomaž Vreček s.p.</t>
+          <t>A STUDIO ALEKSANDRA JAMNIK S.P.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Velesovo   54, Velesovo, 4207 Cerklje na Gorenjskem</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Gregorčičeva ulica    6, Maribor, 2000 Maribor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>041 581035</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1210,38 +1278,46 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>aleksandra.jamnik@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1. 10. 2024</t>
+          <t>23. 1. 2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AC-VRECEK-TOMAZ-VRECEK-S-P/</t>
+          <t>https://www.bizi.si/A-STUDIO-ALEKSANDRA-JAMNIK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ACI, Marko Ivanković s.p.</t>
+          <t>A&amp;M AFERDITA PRESHTRESHI S.P.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brilejeva ulica   21, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Ulica Staneta Rozmana   11, Črnomelj, 8340 Črnomelj</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0590 23120</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1249,35 +1325,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ivankovic.marko80@gmail.com</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>info@bizi.si</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1. 2. 2020</t>
+          <t>1. 6. 2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACI-MARKO-IVANKOVIC-S-P/</t>
+          <t>https://www.bizi.si/A-M-AFERDITA-PRESHTRESHI-S-P/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ACM AVTO CENTER MARIBOR d.o.o.</t>
+          <t>A-FINS, Anita Bodiroža s.p.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jadranska cesta   25, Maribor, 2000 Maribor</t>
+          <t>Ulica Dušana Kvedra   16, Celje, 3000 Celje</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1288,38 +1368,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>avtocentermaribor@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17. 10. 2022</t>
+          <t>1. 12. 2023</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACM-AVTO-CENTER-MARIBOR-D-O-O/</t>
+          <t>https://www.bizi.si/A-FINS-ANITA-BODIROZA-S-P/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ACV d.o.o.</t>
+          <t>A-LENKA ALENKA TEKAVEC S.P.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vojkova cesta   58, Ljubljana, 1000 Ljubljana</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Cankarjeva cesta    6, Litija, 1270 Litija</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01 8983424</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1327,40 +1411,44 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>acv.damir@gmail.com</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>tekavecalenka@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4. 6. 2019</t>
+          <t>1. 10. 2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACV-D-O-O/</t>
+          <t>https://www.bizi.si/A-LENKA-ALENKA-TEKAVEC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ACŠ, Blaž Švelc, s.p.</t>
+          <t>A. STUDIO IN ANITA TOMAZIN NOVAK S.P.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Levstikova ulica   12A, Zagorje ob Savi, 1410 Zagorje ob Savi</t>
+          <t>Novomeška cesta   11, Šentjernej, 8310 Šentjernej</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>041 655104</t>
+          <t>051 331665</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1370,40 +1458,44 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>info@bizi.si</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>astudioin@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mikro enote</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1. 5. 2024</t>
+          <t>15. 8. 2003</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ACS-BLAZ-SVELC-S-P/</t>
+          <t>https://www.bizi.si/A-STUDIO-IN-ANITA-TOMAZIN-NOVAK-S-P/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AD AVTO d.o.o.</t>
+          <t>A2O, Alenka Aucin s.p.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Steletova cesta   23A, Kamnik, 1241 Kamnik</t>
+          <t>Pšatnik   24, Ljubljana, 1211 LJUBLJANA ŠMARTNO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>041 698993</t>
+          <t>040 542824</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1413,42 +1505,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>adavto.servis@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27. 12. 2019</t>
+          <t>18. 4. 2022</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AD-AVTO-D-O-O_KAMNIK/</t>
+          <t>https://www.bizi.si/A2O-ALENKA-AUCIN-S-P/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AD SERVIS, Ahmed Delić s.p.</t>
+          <t>AB - CUTS, Adnan Bahtagić s.p.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ruprova ulica   10, Miklavž na Dravskem polju, 2204 Miklavž na Dravskem polju</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>069 631235</t>
-        </is>
-      </c>
+          <t>Pivovarniška ulica    6, Ljubljana, 1000 Ljubljana</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1462,36 +1550,32 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1. 5. 2024</t>
+          <t>12. 9. 2023</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/AD-SERVIS-AHMED-DELIC-S-P/</t>
+          <t>https://www.bizi.si/AB-CUTS-ADNAN-BAHTAGIC-S-P/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADF Design d.o.o.</t>
+          <t>ABSTRAKT BARBERS, MARK ĆULIBRK S.P.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Koseskega ulica   63, Maribor, 2000 Maribor</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>041 653246</t>
-        </is>
-      </c>
+          <t>Cesta na Klanec    8L, Kranj, 4000 Kranj</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Več kontaktov v TIS-u</t>
@@ -1499,23 +1583,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>adfdesign.doo@gmail.com</t>
+          <t>info@bizi.si</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12. 9. 2019</t>
+          <t>25. 4. 2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Avtoservis</t>
+          <t>Frizerska dejavnost</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.bizi.si/ADF-DESIGN-D-O-O/</t>
+          <t>https://www.bizi.si/ABSTRAKT-BARBERS-MARK-CULIBRK-S-P/</t>
         </is>
       </c>
     </row>
